--- a/data/jpmorgan/processed/supplementary_data/jpmorgan_cleaned_summary.xlsx
+++ b/data/jpmorgan/processed/supplementary_data/jpmorgan_cleaned_summary.xlsx
@@ -1,37 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\bank-of-eng-risk-monitoring\data\jpmorgan\processed\supplementary_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0767E6D0-4AAA-4471-8349-3AC06547C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Noninterest Expense (millions of dollars)</t>
+  </si>
+  <si>
+    <t>Provision for Credit Losses (millions of dollars)</t>
+  </si>
+  <si>
+    <t>Net income (millions of dollars)</t>
+  </si>
+  <si>
+    <t>Common Equity Tier 1 (CET1) Capital ratio (%)</t>
+  </si>
+  <si>
+    <t>Tier 1 Capital ratio ratio (%)</t>
+  </si>
+  <si>
+    <t>Total Capital ratio (%)</t>
+  </si>
+  <si>
+    <t>Supplementary Leverage ratio (SLR) (%)</t>
+  </si>
+  <si>
+    <t>Return on average assets, ROA (%)</t>
+  </si>
+  <si>
+    <t>Return on average common equity (%)</t>
+  </si>
+  <si>
+    <t>Return on average tangible common equity (RoTCE) (%)</t>
+  </si>
+  <si>
+    <t>Efficiency ratio(%)</t>
+  </si>
+  <si>
+    <t>Total loans (billions of dollars)</t>
+  </si>
+  <si>
+    <t>Total deposits (billions of dollars)</t>
+  </si>
+  <si>
+    <t>Book value per share (dollars)</t>
+  </si>
+  <si>
+    <t>Tangible book value per share (dollars)</t>
+  </si>
+  <si>
+    <t>1Q21</t>
+  </si>
+  <si>
+    <t>2Q21</t>
+  </si>
+  <si>
+    <t>3Q21</t>
+  </si>
+  <si>
+    <t>4Q21</t>
+  </si>
+  <si>
+    <t>1Q22</t>
+  </si>
+  <si>
+    <t>2Q22</t>
+  </si>
+  <si>
+    <t>3Q22</t>
+  </si>
+  <si>
+    <t>4Q22</t>
+  </si>
+  <si>
+    <t>1Q23</t>
+  </si>
+  <si>
+    <t>2Q23</t>
+  </si>
+  <si>
+    <t>3Q23</t>
+  </si>
+  <si>
+    <t>4Q23</t>
+  </si>
+  <si>
+    <t>1Q24</t>
+  </si>
+  <si>
+    <t>2Q24</t>
+  </si>
+  <si>
+    <t>3Q24</t>
+  </si>
+  <si>
+    <t>4Q24</t>
+  </si>
+  <si>
+    <t>1Q25</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +153,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,977 +477,909 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Noninterest Expense (millions of dollars)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Provision for Credit Losses (millions of dollars)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Net income (millions of dollars)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Common Equity Tier 1 (CET1) Capital ratio (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Tier 1 Capital ratio ratio (%)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital ratio (%)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Supplementary Leverage ratio (SLR) (%)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Return on average assets, ROA (%)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Return on average common equity (%)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Return on average tangible common equity (RoTCE) (%)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Efficiency ratio(%)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Total loans (billions of dollars)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total deposits (billions of dollars)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Book value per share (dollars)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Tangible book value per share (dollars)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1Q21</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>18725</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>-4156</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>14300</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>13.1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>15</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>17.2</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>6.7</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>1.61</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>23</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>29</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.5803322382693857</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2">
+        <v>0.58033223826938574</v>
+      </c>
+      <c r="M2">
         <v>1011.307</v>
       </c>
-      <c r="N2" t="n">
-        <v>2278.112</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="N2">
+        <v>2278.1120000000001</v>
+      </c>
+      <c r="O2">
         <v>82.31</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>66.56</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2Q21</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <v>17667</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>-2285</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>11948</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>13</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>15.1</v>
       </c>
-      <c r="G3" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H3">
         <v>5.4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1.29</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>18</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>23</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.5796450014764264</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3">
+        <v>0.57964500147642639</v>
+      </c>
+      <c r="M3">
         <v>1040.954</v>
       </c>
-      <c r="N3" t="n">
-        <v>2305.217</v>
-      </c>
-      <c r="O3" t="n">
-        <v>84.84999999999999</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="N3">
+        <v>2305.2170000000001</v>
+      </c>
+      <c r="O3">
+        <v>84.85</v>
+      </c>
+      <c r="P3">
         <v>68.91</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>3Q21</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
         <v>17063</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>-1527</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>11687</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>12.9</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="G4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H4">
         <v>5.5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1.24</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>18</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>22</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.5755388403548419</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4">
+        <v>0.57553884035484193</v>
+      </c>
+      <c r="M4">
         <v>1044.615</v>
       </c>
-      <c r="N4" t="n">
-        <v>2402.353</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="N4">
+        <v>2402.3530000000001</v>
+      </c>
+      <c r="O4">
         <v>86.36</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>69.87</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>4Q21</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
         <v>17888</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>-1288</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>10399</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>13</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>16.8</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>5.4</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>1.08</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>16</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>19</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.6114092353966573</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1077.714</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2462.303</v>
-      </c>
-      <c r="O5" t="n">
-        <v>88.06999999999999</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="L5">
+        <v>0.61140923539665726</v>
+      </c>
+      <c r="M5">
+        <v>1077.7139999999999</v>
+      </c>
+      <c r="N5">
+        <v>2462.3029999999999</v>
+      </c>
+      <c r="O5">
+        <v>88.07</v>
+      </c>
+      <c r="P5">
         <v>71.53</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1Q22</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
         <v>19191</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1463</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>8282</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>11.9</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>13.7</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>15.4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>5.2</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.86</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>13</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>16</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.6247680437542729</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1073.285</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2561.207</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="L6">
+        <v>0.62476804375427286</v>
+      </c>
+      <c r="M6">
+        <v>1073.2850000000001</v>
+      </c>
+      <c r="N6">
+        <v>2561.2069999999999</v>
+      </c>
+      <c r="O6">
         <v>86.16</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>69.58</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2Q22</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
         <v>18749</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1101</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>8649</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>12.2</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>14</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>15.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>5.3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.89</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>13</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>17</v>
       </c>
-      <c r="L7" t="n">
-        <v>0.610418362363666</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7">
+        <v>0.61041836236366598</v>
+      </c>
+      <c r="M7">
         <v>1104.155</v>
       </c>
-      <c r="N7" t="n">
-        <v>2471.544</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="N7">
+        <v>2471.5439999999999</v>
+      </c>
+      <c r="O7">
         <v>86.38</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>69.53</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>3Q22</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
         <v>19178</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1537</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>9737</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>12.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>14.1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>15.9</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>5.3</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1.01</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>18</v>
       </c>
-      <c r="L8" t="n">
-        <v>0.5861963565228023</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8">
+        <v>0.58619635652280233</v>
+      </c>
+      <c r="M8">
         <v>1112.633</v>
       </c>
-      <c r="N8" t="n">
-        <v>2408.615</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="N8">
+        <v>2408.6149999999998</v>
+      </c>
+      <c r="O8">
         <v>87</v>
       </c>
-      <c r="P8" t="n">
-        <v>69.90000000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>4Q22</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="P8">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
         <v>19022</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2288</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>11008</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>13.2</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>14.8</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>16.8</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>5.6</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J9">
         <v>16</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>20</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.5506122094537876</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1135.647</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2340.179</v>
-      </c>
-      <c r="O9" t="n">
-        <v>90.29000000000001</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="L9">
+        <v>0.55061220945378764</v>
+      </c>
+      <c r="M9">
+        <v>1135.6469999999999</v>
+      </c>
+      <c r="N9">
+        <v>2340.1790000000001</v>
+      </c>
+      <c r="O9">
+        <v>90.29</v>
+      </c>
+      <c r="P9">
         <v>73.12</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1Q23</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
         <v>20107</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2275</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>12622</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>13.8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>15.4</v>
       </c>
-      <c r="G10" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H10">
         <v>5.9</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>1.38</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>18</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>23</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.5243161490521265</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10">
+        <v>0.52431614905212653</v>
+      </c>
+      <c r="M10">
         <v>1128.896</v>
       </c>
-      <c r="N10" t="n">
-        <v>2377.253</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="N10">
+        <v>2377.2530000000002</v>
+      </c>
+      <c r="O10">
         <v>94.34</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>76.69</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2Q23</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
         <v>20822</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2899</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>14472</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>13.8</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>15.3</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>17.3</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>5.8</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>1.51</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>20</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>25</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.5040792117558768</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11">
+        <v>0.50407921175587678</v>
+      </c>
+      <c r="M11">
         <v>1300.069</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>2398.962</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>98.11</v>
       </c>
-      <c r="P11" t="n">
-        <v>79.90000000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>3Q23</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="P11">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
         <v>21757</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1384</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>13151</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>14.3</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>15.9</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>17.8</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>1.36</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>18</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>22</v>
       </c>
-      <c r="L12" t="n">
-        <v>0.5456437779003862</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12">
+        <v>0.54564377790038621</v>
+      </c>
+      <c r="M12">
         <v>1310.059</v>
       </c>
-      <c r="N12" t="n">
-        <v>2379.526</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="N12">
+        <v>2379.5259999999998</v>
+      </c>
+      <c r="O12">
         <v>100.3</v>
       </c>
-      <c r="P12" t="n">
-        <v>82.04000000000001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>4Q23</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="P12">
+        <v>82.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
         <v>24486</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2762</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>9307</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>15</v>
       </c>
-      <c r="F13" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="G13" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="F13">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G13">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H13">
         <v>6.1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.95</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>15</v>
       </c>
-      <c r="L13" t="n">
-        <v>0.6347799035619848</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1323.706</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2400.688</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="L13">
+        <v>0.63477990356198477</v>
+      </c>
+      <c r="M13">
+        <v>1323.7059999999999</v>
+      </c>
+      <c r="N13">
+        <v>2400.6880000000001</v>
+      </c>
+      <c r="O13">
         <v>104.45</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>86.08</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>1Q24</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
         <v>22757</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1884</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>13419</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G14">
         <v>18.2</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>6.1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>1.36</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J14">
+        <v>17</v>
+      </c>
+      <c r="K14">
         <v>21</v>
       </c>
-      <c r="L14" t="n">
-        <v>0.5426861258167597</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14">
+        <v>0.54268612581675968</v>
+      </c>
+      <c r="M14">
         <v>1309.616</v>
       </c>
-      <c r="N14" t="n">
-        <v>2428.409</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="N14">
+        <v>2428.4090000000001</v>
+      </c>
+      <c r="O14">
         <v>106.81</v>
       </c>
-      <c r="P14" t="n">
-        <v>88.43000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2Q24</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="P14">
+        <v>88.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
         <v>23713</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3052</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>18149</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>15.299999999999999</v>
+      </c>
+      <c r="F15">
         <v>16.7</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>18.5</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>6.1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>1.79</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J15">
+        <v>23</v>
+      </c>
+      <c r="K15">
         <v>28</v>
       </c>
-      <c r="L15" t="n">
-        <v>0.4723705179282868</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15">
+        <v>0.47237051792828683</v>
+      </c>
+      <c r="M15">
         <v>1320.7</v>
       </c>
-      <c r="N15" t="n">
-        <v>2396.53</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="N15">
+        <v>2396.5300000000002</v>
+      </c>
+      <c r="O15">
         <v>111.29</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>92.77</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>3Q24</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
         <v>22565</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3111</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>12898</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="F16" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="E16">
+        <v>15.299999999999999</v>
+      </c>
+      <c r="F16">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G16">
         <v>18.2</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>6</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>1.23</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J16">
+        <v>16</v>
+      </c>
+      <c r="K16">
         <v>19</v>
       </c>
-      <c r="L16" t="n">
-        <v>0.5290242415717166</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16">
+        <v>0.52902424157171657</v>
+      </c>
+      <c r="M16">
         <v>1340.011</v>
       </c>
-      <c r="N16" t="n">
-        <v>2430.772</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="N16">
+        <v>2430.7719999999999</v>
+      </c>
+      <c r="O16">
         <v>115.15</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>96.42</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>4Q24</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
         <v>22762</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2631</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>14005</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E17">
+        <v>15.7</v>
+      </c>
+      <c r="F17">
         <v>16.8</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>18.5</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>6.1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>1.35</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17">
         <v>21</v>
       </c>
-      <c r="L17" t="n">
-        <v>0.5322203516647961</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1347.988</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2406.032</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L17">
+        <v>0.53222035166479609</v>
+      </c>
+      <c r="M17">
+        <v>1347.9880000000001</v>
+      </c>
+      <c r="N17">
+        <v>2406.0320000000002</v>
+      </c>
+      <c r="O17">
         <v>116.07</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>97.3</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>1Q25</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
         <v>23597</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3305</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>14643</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18">
+        <v>15.4</v>
+      </c>
+      <c r="F18">
         <v>16.5</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>18.2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>6</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>1.4</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
         <v>21</v>
       </c>
-      <c r="L18" t="n">
-        <v>0.5207901125579343</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1355.695</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18">
+        <v>0.52079011255793428</v>
+      </c>
+      <c r="M18">
+        <v>1355.6949999999999</v>
+      </c>
+      <c r="N18">
         <v>2495.877</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>119.24</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>100.36</v>
       </c>
     </row>
